--- a/corp_dataset.xlsx
+++ b/corp_dataset.xlsx
@@ -2217,7 +2217,7 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/corp_dataset.xlsx
+++ b/corp_dataset.xlsx
@@ -2216,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="K193" sqref="K193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
